--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>995987.2648984141</v>
+        <v>991975.4621663175</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518386</v>
+        <v>29001646.18518385</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140342</v>
+        <v>6432656.960140343</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>49.06932156834532</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>372.4267002079804</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U13" t="n">
-        <v>102.0274006467622</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>11.00517010815202</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.11281081848985</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>372.4267002079794</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,7 +1779,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>134.4334047779237</v>
@@ -1815,22 +1815,22 @@
         <v>6.489944470648574</v>
       </c>
       <c r="S16" t="n">
-        <v>50.40166003222747</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>159.4354759664701</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>285.1710023027214</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>35.43075493883264</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U17" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
         <v>71.96559361603954</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U19" t="n">
-        <v>201.939147159147</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>55.74745825146187</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>387.5916185220669</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>368.8546721279967</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>51.46751050105465</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>39.30752996701013</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2320,10 +2320,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>351.6755347751103</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U23" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
-        <v>173.4470029861061</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>93.50247743804765</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
         <v>274.5392124624013</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>122.3778905686766</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2794,19 +2794,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>274.5392124624013</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U29" t="n">
-        <v>147.1153718073462</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>15.88609741777824</v>
       </c>
     </row>
     <row r="30">
@@ -2970,7 +2970,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I31" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603957</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3006,7 +3006,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U31" t="n">
-        <v>277.333984989981</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>77.62145734137967</v>
       </c>
       <c r="H32" t="n">
         <v>274.5392124624013</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U32" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>259.9251152489415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>134.9938404165513</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3274,10 +3274,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>395.8511035988554</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>53.20143708675052</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.097464026797</v>
+        <v>82.66222712972517</v>
       </c>
       <c r="U37" t="n">
         <v>277.3339849899809</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>352.9736520313294</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161366</v>
+        <v>34.469605806954</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>9.267814325145327</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
-        <v>165.7938718975897</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3751,10 +3751,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>274.5392124624013</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>88.24816986058963</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>77.95336348818586</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>92.21354583233021</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>143.2648099042401</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.097464026797</v>
@@ -3957,13 +3957,13 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>228.6063303545347</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>247.6301704496741</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.097464026797</v>
+        <v>40.25642765718294</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>65.29075159508368</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1197.088788590576</v>
+        <v>466.0480391108902</v>
       </c>
       <c r="C11" t="n">
-        <v>1197.088788590576</v>
+        <v>466.0480391108902</v>
       </c>
       <c r="D11" t="n">
-        <v>1147.523817309419</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="E11" t="n">
-        <v>1147.523817309419</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G11" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H11" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610014</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848332</v>
       </c>
       <c r="M11" t="n">
         <v>1017.95803136565</v>
@@ -5071,22 +5071,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T11" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U11" t="n">
-        <v>1608.808787422829</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V11" t="n">
-        <v>1608.808787422829</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W11" t="n">
-        <v>1608.808787422829</v>
+        <v>1702.953672279782</v>
       </c>
       <c r="X11" t="n">
-        <v>1197.088788590576</v>
+        <v>1291.23367344753</v>
       </c>
       <c r="Y11" t="n">
-        <v>1197.088788590576</v>
+        <v>885.8964034024202</v>
       </c>
     </row>
     <row r="12">
@@ -5126,7 +5126,7 @@
         <v>289.8146695059644</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283642</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M12" t="n">
         <v>1002.337654088804</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6384156473184</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="C13" t="n">
         <v>754.6658525262344</v>
@@ -5199,25 +5199,25 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J13" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K13" t="n">
-        <v>307.622148176298</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L13" t="n">
-        <v>793.5055319595109</v>
+        <v>652.3645187823271</v>
       </c>
       <c r="M13" t="n">
-        <v>1322.603833371156</v>
+        <v>1181.462820193972</v>
       </c>
       <c r="N13" t="n">
-        <v>1437.099088512676</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O13" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P13" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.770914794524</v>
@@ -5232,19 +5232,19 @@
         <v>1737.278665192341</v>
       </c>
       <c r="U13" t="n">
-        <v>1634.220684741066</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="V13" t="n">
-        <v>1634.220684741066</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="W13" t="n">
-        <v>1359.368280913579</v>
+        <v>1182.290922991136</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.804384359384</v>
+        <v>1171.174589548558</v>
       </c>
       <c r="Y13" t="n">
-        <v>1116.804384359384</v>
+        <v>944.8318212383001</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1293.504102303812</v>
+        <v>842.2366251795563</v>
       </c>
       <c r="C14" t="n">
-        <v>1293.504102303812</v>
+        <v>842.2366251795563</v>
       </c>
       <c r="D14" t="n">
-        <v>870.211481488812</v>
+        <v>418.9440043645566</v>
       </c>
       <c r="E14" t="n">
-        <v>870.211481488812</v>
+        <v>418.9440043645566</v>
       </c>
       <c r="F14" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G14" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103563</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072044</v>
+        <v>222.236059607204</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715609998</v>
       </c>
       <c r="L14" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848316</v>
       </c>
       <c r="M14" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N14" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O14" t="n">
         <v>1626.510864636164</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q14" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W14" t="n">
-        <v>1741.379565094871</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X14" t="n">
-        <v>1741.379565094871</v>
+        <v>1667.422259516196</v>
       </c>
       <c r="Y14" t="n">
-        <v>1336.042295049761</v>
+        <v>1262.084989471086</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C15" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D15" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E15" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F15" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G15" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H15" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I15" t="n">
-        <v>408.5627360938325</v>
+        <v>62.98439029745214</v>
       </c>
       <c r="J15" t="n">
-        <v>487.6020609340965</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K15" t="n">
-        <v>635.3930153023448</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L15" t="n">
-        <v>841.6436049247445</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M15" t="n">
-        <v>1085.473805880246</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N15" t="n">
-        <v>1338.098871514441</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O15" t="n">
-        <v>1565.5907355373</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P15" t="n">
-        <v>1745.031389188122</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q15" t="n">
-        <v>2095.855732839468</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R15" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S15" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T15" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U15" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V15" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W15" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X15" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y15" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1017.262669716467</v>
+        <v>516.6167163259752</v>
       </c>
       <c r="C16" t="n">
-        <v>845.2901065953833</v>
+        <v>516.6167163259752</v>
       </c>
       <c r="D16" t="n">
-        <v>681.9733337221541</v>
+        <v>516.6167163259752</v>
       </c>
       <c r="E16" t="n">
-        <v>515.7651278750076</v>
+        <v>350.4085104788288</v>
       </c>
       <c r="F16" t="n">
-        <v>343.903353649568</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="G16" t="n">
         <v>178.5467362533892</v>
       </c>
       <c r="H16" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J16" t="n">
-        <v>84.71320548484809</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K16" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L16" t="n">
-        <v>899.6471278963492</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M16" t="n">
-        <v>1322.603833371156</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N16" t="n">
-        <v>1437.099088512676</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O16" t="n">
-        <v>1539.553111280806</v>
+        <v>1539.553111280805</v>
       </c>
       <c r="P16" t="n">
-        <v>1936.87886150226</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S16" t="n">
-        <v>2080.304647619902</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="T16" t="n">
-        <v>2080.304647619902</v>
+        <v>1891.723027423366</v>
       </c>
       <c r="U16" t="n">
-        <v>1800.169309246184</v>
+        <v>1611.587689049647</v>
       </c>
       <c r="V16" t="n">
-        <v>1518.457841854212</v>
+        <v>1450.541753729981</v>
       </c>
       <c r="W16" t="n">
-        <v>1243.605438026725</v>
+        <v>1175.689349902494</v>
       </c>
       <c r="X16" t="n">
-        <v>1243.605438026725</v>
+        <v>933.1254533482988</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.262669716467</v>
+        <v>706.7826850380409</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>501.8366804632464</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="C17" t="n">
-        <v>501.8366804632464</v>
+        <v>1181.908057436129</v>
       </c>
       <c r="D17" t="n">
-        <v>78.54405964824667</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E17" t="n">
-        <v>78.54405964824667</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F17" t="n">
-        <v>78.54405964824667</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G17" t="n">
-        <v>78.54405964824667</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848321</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N17" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O17" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q17" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T17" t="n">
-        <v>1925.631778790232</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U17" t="n">
-        <v>1667.437443868903</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V17" t="n">
-        <v>1309.948028995152</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W17" t="n">
-        <v>913.5566792954992</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="X17" t="n">
-        <v>501.8366804632464</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="Y17" t="n">
-        <v>501.8366804632464</v>
+        <v>1608.808787422829</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.5540468050089</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C18" t="n">
-        <v>803.0481433225136</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D18" t="n">
-        <v>699.2081848377986</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E18" t="n">
-        <v>594.5062511107359</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F18" t="n">
-        <v>500.8604207936401</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G18" t="n">
-        <v>407.8805855396973</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H18" t="n">
-        <v>364.8764582478585</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I18" t="n">
-        <v>385.1054302494202</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J18" t="n">
-        <v>464.1447550896842</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K18" t="n">
-        <v>611.9357094579325</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L18" t="n">
-        <v>818.1862990803322</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M18" t="n">
-        <v>1062.016500035834</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N18" t="n">
-        <v>1314.641565670029</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O18" t="n">
-        <v>1542.133429692888</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P18" t="n">
-        <v>1721.57408334371</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q18" t="n">
-        <v>2095.855732839468</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R18" t="n">
-        <v>2137.770914794523</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S18" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T18" t="n">
-        <v>1938.843349494019</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U18" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V18" t="n">
-        <v>1549.172668271899</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W18" t="n">
-        <v>1352.651291105116</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X18" t="n">
-        <v>1189.173944871779</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y18" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>954.1638705630489</v>
+        <v>1089.955188520548</v>
       </c>
       <c r="C19" t="n">
-        <v>782.1913074419649</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="D19" t="n">
-        <v>618.8745345687356</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E19" t="n">
-        <v>452.6663287215891</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F19" t="n">
-        <v>280.8045544961495</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G19" t="n">
-        <v>115.4479370999708</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H19" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J19" t="n">
-        <v>84.71320548484807</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K19" t="n">
-        <v>166.4811349991142</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L19" t="n">
-        <v>567.1767050342062</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M19" t="n">
-        <v>1096.275006445851</v>
+        <v>1506.667145956215</v>
       </c>
       <c r="N19" t="n">
-        <v>1210.770261587371</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O19" t="n">
-        <v>1690.926608658704</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P19" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R19" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S19" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T19" t="n">
-        <v>2131.215415329222</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.236478804831</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V19" t="n">
-        <v>1645.52501141286</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W19" t="n">
-        <v>1370.672607585373</v>
+        <v>1280.121157232613</v>
       </c>
       <c r="X19" t="n">
-        <v>1370.672607585373</v>
+        <v>1280.121157232613</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.329839275115</v>
+        <v>1280.121157232613</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.75541829589047</v>
+        <v>842.2366251795568</v>
       </c>
       <c r="C20" t="n">
-        <v>42.75541829589047</v>
+        <v>415.3358951928569</v>
       </c>
       <c r="D20" t="n">
-        <v>42.75541829589047</v>
+        <v>415.3358951928569</v>
       </c>
       <c r="E20" t="n">
-        <v>42.75541829589047</v>
+        <v>415.3358951928569</v>
       </c>
       <c r="F20" t="n">
-        <v>42.75541829589047</v>
+        <v>415.3358951928569</v>
       </c>
       <c r="G20" t="n">
         <v>42.75541829589047</v>
@@ -5749,7 +5749,7 @@
         <v>42.75541829589047</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J20" t="n">
         <v>222.2360596072047</v>
@@ -5782,22 +5782,22 @@
         <v>2079.142258348449</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U20" t="n">
-        <v>1608.808787422829</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V20" t="n">
-        <v>1251.319372549078</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W20" t="n">
-        <v>1251.319372549078</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X20" t="n">
-        <v>839.5993737168253</v>
+        <v>1667.422259516196</v>
       </c>
       <c r="Y20" t="n">
-        <v>434.2621036717156</v>
+        <v>1262.084989471087</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.5540468050089</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C21" t="n">
-        <v>803.0481433225136</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D21" t="n">
-        <v>699.2081848377986</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E21" t="n">
-        <v>594.5062511107359</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F21" t="n">
-        <v>500.8604207936401</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>407.8805855396973</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H21" t="n">
-        <v>364.8764582478585</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I21" t="n">
-        <v>385.1054302494202</v>
+        <v>86.441696141864</v>
       </c>
       <c r="J21" t="n">
-        <v>464.1447550896842</v>
+        <v>404.465909142654</v>
       </c>
       <c r="K21" t="n">
-        <v>611.9357094579325</v>
+        <v>552.2568635109022</v>
       </c>
       <c r="L21" t="n">
-        <v>818.1862990803322</v>
+        <v>758.5074531333021</v>
       </c>
       <c r="M21" t="n">
-        <v>1062.016500035834</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N21" t="n">
-        <v>1314.641565670029</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O21" t="n">
-        <v>1542.133429692888</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P21" t="n">
-        <v>1721.57408334371</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q21" t="n">
-        <v>2095.855732839468</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R21" t="n">
-        <v>2137.770914794523</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S21" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T21" t="n">
-        <v>1938.843349494019</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U21" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V21" t="n">
-        <v>1549.172668271899</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W21" t="n">
-        <v>1352.651291105116</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>1189.173944871779</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y21" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>918.0934142951081</v>
+        <v>402.5066837189729</v>
       </c>
       <c r="C22" t="n">
-        <v>746.1208511740241</v>
+        <v>230.5341205978889</v>
       </c>
       <c r="D22" t="n">
-        <v>582.8040783007948</v>
+        <v>230.5341205978889</v>
       </c>
       <c r="E22" t="n">
-        <v>416.5958724536483</v>
+        <v>230.5341205978889</v>
       </c>
       <c r="F22" t="n">
-        <v>416.5958724536483</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2392550574696</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I22" t="n">
         <v>42.75541829589047</v>
       </c>
       <c r="J22" t="n">
-        <v>84.71320548484807</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K22" t="n">
         <v>166.4811349991142</v>
       </c>
       <c r="L22" t="n">
-        <v>652.3645187823271</v>
+        <v>481.8999867656335</v>
       </c>
       <c r="M22" t="n">
-        <v>768.3405774192805</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N22" t="n">
-        <v>1210.770261587371</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O22" t="n">
-        <v>1690.926608658704</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P22" t="n">
         <v>2088.252358880158</v>
@@ -5934,28 +5934,28 @@
         <v>2137.770914794523</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S22" t="n">
-        <v>2091.510839604969</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T22" t="n">
-        <v>1852.018451699113</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U22" t="n">
-        <v>1852.018451699113</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V22" t="n">
-        <v>1852.018451699113</v>
+        <v>1336.431721122978</v>
       </c>
       <c r="W22" t="n">
-        <v>1577.166047871626</v>
+        <v>1061.579317295491</v>
       </c>
       <c r="X22" t="n">
-        <v>1334.602151317432</v>
+        <v>819.0154207412965</v>
       </c>
       <c r="Y22" t="n">
-        <v>1108.259383007174</v>
+        <v>592.6726524310385</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1738.572863117726</v>
+        <v>841.2754438378563</v>
       </c>
       <c r="C23" t="n">
-        <v>1311.672133131026</v>
+        <v>841.2754438378563</v>
       </c>
       <c r="D23" t="n">
-        <v>888.3795123160261</v>
+        <v>841.2754438378563</v>
       </c>
       <c r="E23" t="n">
-        <v>462.4025724638836</v>
+        <v>415.2985039857139</v>
       </c>
       <c r="F23" t="n">
-        <v>462.4025724638836</v>
+        <v>415.2985039857139</v>
       </c>
       <c r="G23" t="n">
         <v>60.07069108156194</v>
@@ -5986,7 +5986,7 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I23" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J23" t="n">
         <v>631.2805511005022</v>
@@ -6016,25 +6016,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T23" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U23" t="n">
-        <v>2745.340219156767</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V23" t="n">
-        <v>2570.141226241509</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="W23" t="n">
-        <v>2570.141226241509</v>
+        <v>2078.181077006749</v>
       </c>
       <c r="X23" t="n">
-        <v>2158.421227409256</v>
+        <v>1666.461078174496</v>
       </c>
       <c r="Y23" t="n">
-        <v>2158.421227409256</v>
+        <v>1261.123808129386</v>
       </c>
     </row>
     <row r="24">
@@ -6068,13 +6068,13 @@
         <v>80.29966308312362</v>
       </c>
       <c r="J24" t="n">
-        <v>421.7811819283255</v>
+        <v>159.3389879233877</v>
       </c>
       <c r="K24" t="n">
-        <v>569.5721362965737</v>
+        <v>569.5721362965736</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8227259189736</v>
+        <v>775.8227259189734</v>
       </c>
       <c r="M24" t="n">
         <v>1019.652926874475</v>
@@ -6126,46 +6126,46 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851346</v>
+        <v>935.2978981851351</v>
       </c>
       <c r="D25" t="n">
-        <v>771.9811253119053</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E25" t="n">
-        <v>605.7729194647588</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393194</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431409</v>
+        <v>268.5545278431407</v>
       </c>
       <c r="H25" t="n">
-        <v>132.7632098856423</v>
+        <v>132.763209885642</v>
       </c>
       <c r="I25" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="J25" t="n">
-        <v>179.9501949187404</v>
+        <v>102.0284782705196</v>
       </c>
       <c r="K25" t="n">
-        <v>509.0007335470286</v>
+        <v>397.2373026266567</v>
       </c>
       <c r="L25" t="n">
-        <v>994.8841173302415</v>
+        <v>883.1206864098697</v>
       </c>
       <c r="M25" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N25" t="n">
-        <v>2036.923834413417</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O25" t="n">
-        <v>2517.08018148475</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P25" t="n">
-        <v>2914.405931706204</v>
+        <v>2802.642500785833</v>
       </c>
       <c r="Q25" t="n">
         <v>3003.534554078097</v>
@@ -6174,25 +6174,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.534692381769</v>
+        <v>2842.53469238177</v>
       </c>
       <c r="T25" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U25" t="n">
-        <v>2322.906966102195</v>
+        <v>2322.906966102196</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.195498710224</v>
+        <v>2041.195498710225</v>
       </c>
       <c r="W25" t="n">
-        <v>1766.343094882737</v>
+        <v>1766.343094882738</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.779198328542</v>
+        <v>1523.779198328543</v>
       </c>
       <c r="Y25" t="n">
-        <v>1297.436430018284</v>
+        <v>1297.436430018285</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1708.00026446313</v>
+        <v>1588.131710910091</v>
       </c>
       <c r="C26" t="n">
-        <v>1281.09953447643</v>
+        <v>1588.131710910091</v>
       </c>
       <c r="D26" t="n">
-        <v>857.8069136614306</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="E26" t="n">
-        <v>431.8299738092882</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="F26" t="n">
-        <v>431.8299738092882</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G26" t="n">
         <v>337.3830269021693</v>
@@ -6223,25 +6223,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I26" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J26" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L26" t="n">
-        <v>726.9004528705036</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M26" t="n">
-        <v>1035.273304151321</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N26" t="n">
-        <v>1778.64810628565</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O26" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P26" t="n">
         <v>2737.9661972607</v>
@@ -6256,22 +6256,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>2944.905897632023</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U26" t="n">
-        <v>2944.905897632023</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V26" t="n">
-        <v>2944.905897632023</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W26" t="n">
-        <v>2944.905897632023</v>
+        <v>1993.4689809552</v>
       </c>
       <c r="X26" t="n">
-        <v>2533.18589879977</v>
+        <v>1993.4689809552</v>
       </c>
       <c r="Y26" t="n">
-        <v>2127.84862875466</v>
+        <v>1588.131710910091</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1786.317686088583</v>
+        <v>615.7482796387122</v>
       </c>
       <c r="C27" t="n">
-        <v>1668.811782606087</v>
+        <v>498.242376156217</v>
       </c>
       <c r="D27" t="n">
-        <v>1564.971824121372</v>
+        <v>394.4024176715021</v>
       </c>
       <c r="E27" t="n">
-        <v>1460.26989039431</v>
+        <v>289.7004839444393</v>
       </c>
       <c r="F27" t="n">
-        <v>1366.624060077214</v>
+        <v>196.0546536273434</v>
       </c>
       <c r="G27" t="n">
-        <v>1273.644224823271</v>
+        <v>103.0748183734007</v>
       </c>
       <c r="H27" t="n">
-        <v>1230.640097531432</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>1250.869069532994</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>1592.350588378196</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K27" t="n">
-        <v>1740.141542746444</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L27" t="n">
-        <v>1946.392132368844</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M27" t="n">
-        <v>2190.222333324346</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N27" t="n">
-        <v>2442.847398958541</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>2670.3392629814</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>2849.779916632222</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>2961.619372123041</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
-        <v>3003.534554078097</v>
+        <v>1832.965147628227</v>
       </c>
       <c r="S27" t="n">
-        <v>2942.158206630578</v>
+        <v>1771.588800180708</v>
       </c>
       <c r="T27" t="n">
-        <v>2804.606988777593</v>
+        <v>1634.037582327722</v>
       </c>
       <c r="U27" t="n">
-        <v>2619.909446416206</v>
+        <v>1449.340039966336</v>
       </c>
       <c r="V27" t="n">
-        <v>2414.936307555472</v>
+        <v>1244.366901105602</v>
       </c>
       <c r="W27" t="n">
-        <v>2218.41493038869</v>
+        <v>1047.84552393882</v>
       </c>
       <c r="X27" t="n">
-        <v>2054.937584155353</v>
+        <v>884.3681777054826</v>
       </c>
       <c r="Y27" t="n">
-        <v>1915.244695508645</v>
+        <v>744.675289058775</v>
       </c>
     </row>
     <row r="28">
@@ -6363,19 +6363,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G28" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H28" t="n">
         <v>132.7632098856423</v>
@@ -6393,16 +6393,16 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M28" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N28" t="n">
-        <v>2036.923834413417</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O28" t="n">
-        <v>2517.08018148475</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P28" t="n">
-        <v>2914.405931706204</v>
+        <v>2802.642500785833</v>
       </c>
       <c r="Q28" t="n">
         <v>3003.534554078097</v>
@@ -6411,25 +6411,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T28" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U28" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W28" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y28" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1163.007529099491</v>
+        <v>2038.677499366611</v>
       </c>
       <c r="C29" t="n">
-        <v>1163.007529099491</v>
+        <v>1611.776769379911</v>
       </c>
       <c r="D29" t="n">
-        <v>739.714908284491</v>
+        <v>1188.484148564912</v>
       </c>
       <c r="E29" t="n">
-        <v>739.714908284491</v>
+        <v>762.5072087127692</v>
       </c>
       <c r="F29" t="n">
-        <v>739.714908284491</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="G29" t="n">
         <v>337.3830269021693</v>
@@ -6460,31 +6460,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466718</v>
+        <v>1150.594152566822</v>
       </c>
       <c r="L29" t="n">
-        <v>1146.086407504068</v>
+        <v>1423.110161090654</v>
       </c>
       <c r="M29" t="n">
-        <v>1454.459258784885</v>
+        <v>1731.483012371471</v>
       </c>
       <c r="N29" t="n">
-        <v>2197.834060919214</v>
+        <v>2045.595402641462</v>
       </c>
       <c r="O29" t="n">
-        <v>2492.274503919738</v>
+        <v>2340.035845641986</v>
       </c>
       <c r="P29" t="n">
-        <v>2737.9661972607</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q29" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R29" t="n">
         <v>3003.534554078097</v>
@@ -6493,22 +6493,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>2944.905897632023</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U29" t="n">
-        <v>2796.304511968036</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V29" t="n">
-        <v>2796.304511968036</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="W29" t="n">
-        <v>2399.913162268383</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="X29" t="n">
-        <v>1988.19316343613</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="Y29" t="n">
-        <v>1582.855893391021</v>
+        <v>2458.525863658141</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>182.7962937677995</v>
       </c>
       <c r="K30" t="n">
-        <v>330.5872481360477</v>
+        <v>330.5872481360478</v>
       </c>
       <c r="L30" t="n">
-        <v>775.8227259189736</v>
+        <v>536.8378377584476</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.652926874475</v>
+        <v>780.668038713949</v>
       </c>
       <c r="N30" t="n">
-        <v>1272.27799250867</v>
+        <v>1033.293104348145</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6624,10 +6624,10 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K31" t="n">
-        <v>509.0007335470286</v>
+        <v>397.2373026266567</v>
       </c>
       <c r="L31" t="n">
-        <v>994.8841173302415</v>
+        <v>883.1206864098697</v>
       </c>
       <c r="M31" t="n">
         <v>1412.632225509645</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1592.592578123333</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="C32" t="n">
-        <v>1165.691848136633</v>
+        <v>1690.182281845951</v>
       </c>
       <c r="D32" t="n">
-        <v>1165.691848136633</v>
+        <v>1266.889661030952</v>
       </c>
       <c r="E32" t="n">
-        <v>739.714908284491</v>
+        <v>840.9127211788092</v>
       </c>
       <c r="F32" t="n">
-        <v>739.714908284491</v>
+        <v>415.7885393682094</v>
       </c>
       <c r="G32" t="n">
         <v>337.3830269021693</v>
@@ -6697,31 +6697,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I32" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J32" t="n">
         <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>846.1136630542981</v>
+        <v>1302.832810844573</v>
       </c>
       <c r="L32" t="n">
-        <v>1118.62967157813</v>
+        <v>1575.348819368405</v>
       </c>
       <c r="M32" t="n">
-        <v>1731.483012371471</v>
+        <v>1883.721670649222</v>
       </c>
       <c r="N32" t="n">
-        <v>2045.595402641462</v>
+        <v>2197.834060919214</v>
       </c>
       <c r="O32" t="n">
-        <v>2340.035845641986</v>
+        <v>2492.274503919738</v>
       </c>
       <c r="P32" t="n">
-        <v>2585.727538982948</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q32" t="n">
-        <v>2762.403697278422</v>
+        <v>2914.642355556173</v>
       </c>
       <c r="R32" t="n">
         <v>3003.534554078097</v>
@@ -6730,22 +6730,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>2944.905897632023</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U32" t="n">
-        <v>2686.711562710693</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V32" t="n">
-        <v>2686.711562710693</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W32" t="n">
-        <v>2686.711562710693</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="X32" t="n">
-        <v>2274.991563878441</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="Y32" t="n">
-        <v>2012.440942414863</v>
+        <v>2117.083011832651</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>421.7811819283255</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K33" t="n">
-        <v>569.5721362965737</v>
+        <v>330.5872481360478</v>
       </c>
       <c r="L33" t="n">
-        <v>775.8227259189736</v>
+        <v>536.8378377584476</v>
       </c>
       <c r="M33" t="n">
-        <v>1019.652926874475</v>
+        <v>780.668038713949</v>
       </c>
       <c r="N33" t="n">
-        <v>1272.27799250867</v>
+        <v>1033.293104348145</v>
       </c>
       <c r="O33" t="n">
-        <v>1499.76985653153</v>
+        <v>1260.784968371004</v>
       </c>
       <c r="P33" t="n">
-        <v>1679.210510182351</v>
+        <v>1440.225622021826</v>
       </c>
       <c r="Q33" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R33" t="n">
         <v>1832.965147628227</v>
@@ -6837,16 +6837,16 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F34" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G34" t="n">
         <v>268.5545278431409</v>
@@ -6867,16 +6867,16 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N34" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O34" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P34" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706205</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6885,25 +6885,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S34" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T34" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U34" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V34" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W34" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y34" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1717.922550502993</v>
+        <v>1318.925708949733</v>
       </c>
       <c r="C35" t="n">
-        <v>1291.021820516293</v>
+        <v>892.0249789630327</v>
       </c>
       <c r="D35" t="n">
-        <v>867.7291997012937</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="E35" t="n">
-        <v>467.8796001064903</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103618</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848321</v>
       </c>
       <c r="M35" t="n">
         <v>1017.958031365649</v>
@@ -6955,34 +6955,34 @@
         <v>1626.510864636164</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q35" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S35" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T35" t="n">
-        <v>2137.770914794523</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U35" t="n">
-        <v>2137.770914794523</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="V35" t="n">
-        <v>2137.770914794523</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="W35" t="n">
-        <v>2137.770914794523</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="X35" t="n">
-        <v>2137.770914794523</v>
+        <v>1455.283123511906</v>
       </c>
       <c r="Y35" t="n">
-        <v>2137.770914794523</v>
+        <v>1455.283123511906</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I36" t="n">
-        <v>86.44169614186399</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J36" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K36" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L36" t="n">
-        <v>519.5225649727761</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M36" t="n">
-        <v>763.3527659282774</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>431.6727907347114</v>
+        <v>551.9463730385928</v>
       </c>
       <c r="C37" t="n">
-        <v>431.6727907347114</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="D37" t="n">
-        <v>268.3560178614821</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="E37" t="n">
-        <v>268.3560178614821</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="F37" t="n">
-        <v>96.49424363604251</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G37" t="n">
-        <v>96.49424363604251</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H37" t="n">
-        <v>96.49424363604251</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J37" t="n">
         <v>162.634922133069</v>
@@ -7101,46 +7101,46 @@
         <v>491.6854607613571</v>
       </c>
       <c r="L37" t="n">
-        <v>601.1799509534052</v>
+        <v>828.9254504309987</v>
       </c>
       <c r="M37" t="n">
-        <v>1130.27825236505</v>
+        <v>944.9015090679522</v>
       </c>
       <c r="N37" t="n">
-        <v>1244.77350750657</v>
+        <v>1059.396764209472</v>
       </c>
       <c r="O37" t="n">
-        <v>1690.926608658704</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P37" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R37" t="n">
         <v>2131.215415329222</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.771053098196</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T37" t="n">
-        <v>1737.27866519234</v>
+        <v>2047.718216208288</v>
       </c>
       <c r="U37" t="n">
-        <v>1457.143326818622</v>
+        <v>1767.582877834569</v>
       </c>
       <c r="V37" t="n">
-        <v>1175.431859426651</v>
+        <v>1485.871410442598</v>
       </c>
       <c r="W37" t="n">
-        <v>900.5794555991642</v>
+        <v>1211.019006615111</v>
       </c>
       <c r="X37" t="n">
-        <v>658.0155590449693</v>
+        <v>968.4551100609165</v>
       </c>
       <c r="Y37" t="n">
-        <v>431.6727907347114</v>
+        <v>742.1123417506585</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>894.7803300931902</v>
+        <v>469.6561482825904</v>
       </c>
       <c r="C38" t="n">
-        <v>467.8796001064903</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="D38" t="n">
-        <v>467.8796001064903</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="E38" t="n">
-        <v>467.8796001064903</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F38" t="n">
         <v>42.75541829589048</v>
@@ -7189,10 +7189,10 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q38" t="n">
         <v>2048.8787162726</v>
@@ -7201,25 +7201,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S38" t="n">
-        <v>2079.14225834845</v>
+        <v>2102.953131151136</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.003122344158</v>
+        <v>2102.953131151136</v>
       </c>
       <c r="U38" t="n">
-        <v>1608.808787422829</v>
+        <v>2102.953131151136</v>
       </c>
       <c r="V38" t="n">
-        <v>1251.319372549078</v>
+        <v>2102.953131151136</v>
       </c>
       <c r="W38" t="n">
-        <v>1251.319372549078</v>
+        <v>1706.561781451483</v>
       </c>
       <c r="X38" t="n">
-        <v>1251.319372549078</v>
+        <v>1294.84178261923</v>
       </c>
       <c r="Y38" t="n">
-        <v>1251.319372549078</v>
+        <v>889.5045125741204</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C39" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D39" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E39" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F39" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H39" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I39" t="n">
-        <v>408.5627360938325</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J39" t="n">
-        <v>487.6020609340965</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K39" t="n">
-        <v>635.3930153023448</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L39" t="n">
-        <v>841.6436049247445</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M39" t="n">
-        <v>1085.473805880246</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N39" t="n">
-        <v>1338.098871514441</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1565.5907355373</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1878.560777063743</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1990.400232554563</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S39" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T39" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U39" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V39" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W39" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X39" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y39" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>754.6658525262344</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C40" t="n">
-        <v>754.6658525262344</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="D40" t="n">
-        <v>754.6658525262344</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="E40" t="n">
-        <v>588.4576466790879</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F40" t="n">
-        <v>416.5958724536483</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H40" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I40" t="n">
         <v>42.75541829589048</v>
@@ -7335,16 +7335,16 @@
         <v>84.71320548484809</v>
       </c>
       <c r="K40" t="n">
-        <v>413.7637441131362</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L40" t="n">
-        <v>899.6471278963492</v>
+        <v>652.3645187823272</v>
       </c>
       <c r="M40" t="n">
-        <v>1428.745429307994</v>
+        <v>1181.462820193972</v>
       </c>
       <c r="N40" t="n">
-        <v>1543.240684449514</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O40" t="n">
         <v>2003.682813232012</v>
@@ -7356,28 +7356,28 @@
         <v>2137.770914794524</v>
       </c>
       <c r="R40" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S40" t="n">
-        <v>2137.770914794524</v>
+        <v>2121.853986717964</v>
       </c>
       <c r="T40" t="n">
-        <v>2137.770914794524</v>
+        <v>1882.361598812109</v>
       </c>
       <c r="U40" t="n">
-        <v>1970.302357322211</v>
+        <v>1602.226260438391</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.59088993024</v>
+        <v>1320.51479304642</v>
       </c>
       <c r="W40" t="n">
-        <v>1413.738486102753</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X40" t="n">
-        <v>1171.174589548558</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y40" t="n">
-        <v>944.8318212383001</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2000.401487148262</v>
+        <v>1172.94542395534</v>
       </c>
       <c r="C41" t="n">
-        <v>1573.500757161562</v>
+        <v>746.0446939686403</v>
       </c>
       <c r="D41" t="n">
-        <v>1573.500757161562</v>
+        <v>746.0446939686403</v>
       </c>
       <c r="E41" t="n">
-        <v>1147.523817309419</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="F41" t="n">
-        <v>722.3996354988195</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="G41" t="n">
         <v>320.0677541164978</v>
@@ -7408,13 +7408,13 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L41" t="n">
         <v>709.5851800848322</v>
@@ -7441,22 +7441,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
-        <v>2079.14225834845</v>
+        <v>1990.002692832702</v>
       </c>
       <c r="U41" t="n">
-        <v>2079.14225834845</v>
+        <v>1990.002692832702</v>
       </c>
       <c r="V41" t="n">
-        <v>2079.14225834845</v>
+        <v>1990.002692832702</v>
       </c>
       <c r="W41" t="n">
-        <v>2079.14225834845</v>
+        <v>1990.002692832702</v>
       </c>
       <c r="X41" t="n">
-        <v>2000.401487148262</v>
+        <v>1578.28269400045</v>
       </c>
       <c r="Y41" t="n">
-        <v>2000.401487148262</v>
+        <v>1172.94542395534</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K42" t="n">
-        <v>446.8013632259966</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L42" t="n">
-        <v>653.0519528483964</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M42" t="n">
         <v>896.8821538038977</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>772.3376854341138</v>
+        <v>395.9511842536717</v>
       </c>
       <c r="C43" t="n">
-        <v>600.3651223130298</v>
+        <v>395.9511842536717</v>
       </c>
       <c r="D43" t="n">
-        <v>437.0483494398005</v>
+        <v>395.9511842536717</v>
       </c>
       <c r="E43" t="n">
-        <v>343.903353649568</v>
+        <v>395.9511842536717</v>
       </c>
       <c r="F43" t="n">
-        <v>343.903353649568</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="G43" t="n">
-        <v>178.5467362533892</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H43" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I43" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="J43" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K43" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L43" t="n">
-        <v>977.5688445445701</v>
+        <v>652.3645187823272</v>
       </c>
       <c r="M43" t="n">
-        <v>1506.667145956215</v>
+        <v>1181.462820193972</v>
       </c>
       <c r="N43" t="n">
-        <v>1749.855293085983</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O43" t="n">
-        <v>1852.309315854113</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q43" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R43" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S43" t="n">
-        <v>1983.326552563498</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T43" t="n">
-        <v>1743.834164657643</v>
+        <v>1891.723027423367</v>
       </c>
       <c r="U43" t="n">
-        <v>1463.698826283925</v>
+        <v>1611.587689049648</v>
       </c>
       <c r="V43" t="n">
-        <v>1463.698826283925</v>
+        <v>1329.876221657677</v>
       </c>
       <c r="W43" t="n">
-        <v>1188.846422456437</v>
+        <v>1055.02381783019</v>
       </c>
       <c r="X43" t="n">
-        <v>1188.846422456437</v>
+        <v>812.4599212759953</v>
       </c>
       <c r="Y43" t="n">
-        <v>962.5036541461795</v>
+        <v>586.1171529657373</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1125.695815299791</v>
+        <v>1570.816438124419</v>
       </c>
       <c r="C44" t="n">
-        <v>698.795085313091</v>
+        <v>1570.816438124419</v>
       </c>
       <c r="D44" t="n">
-        <v>698.795085313091</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="E44" t="n">
-        <v>467.8796001064903</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="F44" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H44" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K44" t="n">
         <v>437.0691715610004</v>
@@ -7675,25 +7675,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S44" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U44" t="n">
-        <v>1879.576579873195</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V44" t="n">
-        <v>1522.087164999444</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="W44" t="n">
-        <v>1125.695815299791</v>
+        <v>1570.816438124419</v>
       </c>
       <c r="X44" t="n">
-        <v>1125.695815299791</v>
+        <v>1570.816438124419</v>
       </c>
       <c r="Y44" t="n">
-        <v>1125.695815299791</v>
+        <v>1570.816438124419</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I45" t="n">
-        <v>86.44169614186399</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J45" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K45" t="n">
-        <v>552.2568635109023</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L45" t="n">
-        <v>758.5074531333022</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M45" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N45" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O45" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P45" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
         <v>1815.649874842555</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>924.598571124369</v>
+        <v>881.4713517589686</v>
       </c>
       <c r="C46" t="n">
-        <v>752.6260080032849</v>
+        <v>709.4987886378846</v>
       </c>
       <c r="D46" t="n">
-        <v>589.3092351300556</v>
+        <v>546.1820157646553</v>
       </c>
       <c r="E46" t="n">
-        <v>423.1010292829092</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="F46" t="n">
-        <v>251.2392550574696</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H46" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I46" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="J46" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K46" t="n">
-        <v>491.6854607613571</v>
+        <v>343.0420666477858</v>
       </c>
       <c r="L46" t="n">
-        <v>977.5688445445701</v>
+        <v>828.9254504309987</v>
       </c>
       <c r="M46" t="n">
-        <v>1506.667145956215</v>
+        <v>944.9015090679522</v>
       </c>
       <c r="N46" t="n">
-        <v>1621.162401097735</v>
+        <v>1059.396764209472</v>
       </c>
       <c r="O46" t="n">
-        <v>1852.309315854113</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P46" t="n">
         <v>1936.87886150226</v>
@@ -7830,28 +7830,28 @@
         <v>2137.770914794524</v>
       </c>
       <c r="R46" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S46" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T46" t="n">
-        <v>1737.278665192341</v>
+        <v>2097.107856554945</v>
       </c>
       <c r="U46" t="n">
-        <v>1737.278665192341</v>
+        <v>2097.107856554945</v>
       </c>
       <c r="V46" t="n">
-        <v>1455.56719780037</v>
+        <v>1815.396389162974</v>
       </c>
       <c r="W46" t="n">
-        <v>1180.714793972883</v>
+        <v>1540.543985335487</v>
       </c>
       <c r="X46" t="n">
-        <v>1114.764539836435</v>
+        <v>1297.980088781292</v>
       </c>
       <c r="Y46" t="n">
-        <v>1114.764539836435</v>
+        <v>1071.637320471034</v>
       </c>
     </row>
   </sheetData>
@@ -8774,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="M12" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>63.85787528178074</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8859,16 +8859,16 @@
         <v>417.2951947219103</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>209.331103319707</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>241.3988769298245</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
@@ -9093,13 +9093,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>310.0814614523767</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>231.3726567572031</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>294.1425048919637</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.2951947219102</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>282.895342794088</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>241.3988769298242</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>208.004405630779</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N22" t="n">
-        <v>331.2468980066366</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>307.556050012651</v>
+        <v>307.5560500126506</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>265.093125257513</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>265.0931252575128</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>215.5968634766375</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.01016813891722</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9886,13 +9886,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>433.5983958225633</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>423.4201561955193</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>461.3324725154296</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>265.0931252575132</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630808</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.01016813891722</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>307.5560500126504</v>
       </c>
       <c r="L29" t="n">
-        <v>423.4201561955192</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>433.5983958225634</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>241.3988769298243</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>136.8880587814648</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>304.8202520630808</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10351,13 +10351,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>461.3324725154295</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>307.5560500126507</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>241.3988769298243</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>304.8202520630808</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891631</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.3988769298244</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,22 +10749,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>230.0459590682763</v>
       </c>
       <c r="M37" t="n">
-        <v>417.2951947219101</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>347.1707862464688</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>134.8781695713339</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10983,19 +10983,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>361.6041474892607</v>
+        <v>209.331103319707</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K42" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N43" t="n">
-        <v>129.9928201901497</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>209.331103319707</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K45" t="n">
-        <v>241.3988769298243</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>178.3443754026985</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.2951947219103</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>129.9928201901496</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>369.9903730385043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>20.00073599467618</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>175.3065843432187</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>229.1330874805009</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>373.5370698301249</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23506,10 +23506,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>48.44623978451432</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
         <v>274.5392124624013</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.0177446442482</v>
@@ -23557,10 +23557,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>102.498258576488</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>119.4588767515813</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>133.8886923041283</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>239.1084575235686</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S19" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>75.39483783083389</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>216.3564215377502</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28.05826212654785</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23983,7 +23983,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3085625684984</v>
+        <v>29.45389044050171</v>
       </c>
       <c r="H20" t="n">
         <v>274.5392124624013</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>118.6756459821305</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S22" t="n">
-        <v>113.5923886417053</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>46.63302779338807</v>
       </c>
       <c r="H23" t="n">
         <v>274.5392124624013</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>180.4675177389069</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>304.8060851304508</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>270.04954563398</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>108.4970197647698</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>385.3977999268803</v>
       </c>
     </row>
     <row r="30">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>320.6871052271188</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.3587820957171</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>280.6560402320634</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>25.86606685476562</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>398.3085625684984</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.612391572116</v>
@@ -25219,7 +25219,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>18.76415652928902</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>154.4352368970719</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>62.67622861728535</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>398.3085625684984</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>23.57276407465965</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8999186087154</v>
+        <v>143.6321042835701</v>
       </c>
       <c r="T40" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>111.5401130923913</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442482</v>
+        <v>121.7695747836586</v>
       </c>
       <c r="U41" t="n">
         <v>255.612391572116</v>
@@ -25693,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>329.6494353557443</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>72.33257795634476</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>26.8783465789451</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>193.1108400990863</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.0177446442482</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>144.7972657529825</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>196.8410363696141</v>
       </c>
       <c r="U46" t="n">
         <v>277.3339849899809</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>174.8475059935693</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350676.8829694209</v>
+        <v>350676.8829694208</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>350676.8829694207</v>
+        <v>350676.8829694208</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>471036.4835700038</v>
+        <v>471036.4835700036</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>350676.8829694209</v>
+        <v>350676.8829694208</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>444661.8388447902</v>
+      </c>
+      <c r="C2" t="n">
         <v>444661.8388447904</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>444661.8388447902</v>
-      </c>
-      <c r="D2" t="n">
-        <v>444661.8388447901</v>
       </c>
       <c r="E2" t="n">
         <v>264418.6700701062</v>
       </c>
       <c r="F2" t="n">
-        <v>264418.6700701062</v>
+        <v>264418.670070106</v>
       </c>
       <c r="G2" t="n">
-        <v>264418.6700701062</v>
+        <v>264418.6700701061</v>
       </c>
       <c r="H2" t="n">
-        <v>264418.6700701062</v>
+        <v>264418.6700701061</v>
       </c>
       <c r="I2" t="n">
+        <v>331859.3702227615</v>
+      </c>
+      <c r="J2" t="n">
         <v>331859.3702227616</v>
-      </c>
-      <c r="J2" t="n">
-        <v>331859.3702227614</v>
       </c>
       <c r="K2" t="n">
         <v>331859.3702227614</v>
       </c>
       <c r="L2" t="n">
-        <v>331859.3702227616</v>
+        <v>331859.3702227614</v>
       </c>
       <c r="M2" t="n">
         <v>264418.6700701061</v>
       </c>
       <c r="N2" t="n">
-        <v>264418.6700701061</v>
+        <v>264418.6700701062</v>
       </c>
       <c r="O2" t="n">
-        <v>264418.6700701061</v>
+        <v>264418.6700701063</v>
       </c>
       <c r="P2" t="n">
         <v>264418.6700701062</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160784</v>
+        <v>79247.3252716077</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>320775.5268176608</v>
       </c>
       <c r="C4" t="n">
-        <v>320775.5268176608</v>
+        <v>320775.5268176607</v>
       </c>
       <c r="D4" t="n">
         <v>320775.5268176608</v>
@@ -26429,31 +26429,31 @@
         <v>18463.88573763714</v>
       </c>
       <c r="F4" t="n">
-        <v>18463.88573763715</v>
+        <v>18463.88573763713</v>
       </c>
       <c r="G4" t="n">
         <v>18463.88573763714</v>
       </c>
       <c r="H4" t="n">
+        <v>18463.88573763713</v>
+      </c>
+      <c r="I4" t="n">
+        <v>54111.91521625007</v>
+      </c>
+      <c r="J4" t="n">
+        <v>54111.91521625007</v>
+      </c>
+      <c r="K4" t="n">
+        <v>54111.91521625007</v>
+      </c>
+      <c r="L4" t="n">
+        <v>54111.91521625007</v>
+      </c>
+      <c r="M4" t="n">
         <v>18463.88573763714</v>
       </c>
-      <c r="I4" t="n">
-        <v>54111.9152162501</v>
-      </c>
-      <c r="J4" t="n">
-        <v>54111.91521625011</v>
-      </c>
-      <c r="K4" t="n">
-        <v>54111.91521625009</v>
-      </c>
-      <c r="L4" t="n">
-        <v>54111.91521625008</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>18463.88573763713</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18463.88573763714</v>
       </c>
       <c r="O4" t="n">
         <v>18463.88573763713</v>
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="G5" t="n">
         <v>43269.71441650124</v>
@@ -26502,7 +26502,7 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="N5" t="n">
         <v>43269.71441650125</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90258.7120271296</v>
+        <v>90236.99838563307</v>
       </c>
       <c r="C6" t="n">
-        <v>90258.71202712943</v>
+        <v>90236.9983856333</v>
       </c>
       <c r="D6" t="n">
-        <v>90258.71202712937</v>
+        <v>90236.99838563312</v>
       </c>
       <c r="E6" t="n">
-        <v>-354004.5860062857</v>
+        <v>-354607.7292244746</v>
       </c>
       <c r="F6" t="n">
-        <v>202685.0699159678</v>
+        <v>202081.9266977788</v>
       </c>
       <c r="G6" t="n">
-        <v>202685.0699159678</v>
+        <v>202081.9266977788</v>
       </c>
       <c r="H6" t="n">
-        <v>202685.0699159678</v>
+        <v>202081.9266977789</v>
       </c>
       <c r="I6" t="n">
-        <v>163761.9500924181</v>
+        <v>163376.3575198829</v>
       </c>
       <c r="J6" t="n">
-        <v>221318.1332728997</v>
+        <v>220932.5407003649</v>
       </c>
       <c r="K6" t="n">
-        <v>221318.1332728998</v>
+        <v>220932.5407003646</v>
       </c>
       <c r="L6" t="n">
-        <v>221318.1332729</v>
+        <v>220932.5407003647</v>
       </c>
       <c r="M6" t="n">
-        <v>123437.7446443599</v>
+        <v>122834.6014261712</v>
       </c>
       <c r="N6" t="n">
-        <v>202685.0699159677</v>
+        <v>202081.9266977789</v>
       </c>
       <c r="O6" t="n">
-        <v>202685.0699159677</v>
+        <v>202081.926697779</v>
       </c>
       <c r="P6" t="n">
-        <v>202685.0699159678</v>
+        <v>202081.9266977789</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>494.2934179644261</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="L3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="O3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="P3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
     </row>
     <row r="4">
@@ -26801,10 +26801,10 @@
         <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
+        <v>534.4427286986307</v>
+      </c>
+      <c r="G4" t="n">
         <v>534.442728698631</v>
-      </c>
-      <c r="G4" t="n">
-        <v>534.4427286986308</v>
       </c>
       <c r="H4" t="n">
         <v>534.4427286986308</v>
@@ -26822,7 +26822,7 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N4" t="n">
         <v>534.442728698631</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777381</v>
+        <v>318.0018188777375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,10 +31755,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H11" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J11" t="n">
         <v>168.6534109867667</v>
@@ -31773,13 +31773,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N11" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O11" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q11" t="n">
         <v>214.5854405596218</v>
@@ -31791,10 +31791,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31861,10 +31861,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R12" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S12" t="n">
         <v>19.74842099131456</v>
@@ -31873,7 +31873,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I13" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
@@ -31940,13 +31940,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R13" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S13" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T13" t="n">
         <v>3.80849026956197</v>
@@ -32229,10 +32229,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H17" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J17" t="n">
         <v>168.6534109867667</v>
@@ -32247,13 +32247,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O17" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q17" t="n">
         <v>214.5854405596218</v>
@@ -32265,10 +32265,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32335,10 +32335,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S18" t="n">
         <v>19.74842099131456</v>
@@ -32347,7 +32347,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I19" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32414,13 +32414,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R19" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S19" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T19" t="n">
         <v>3.80849026956197</v>
@@ -32469,7 +32469,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J20" t="n">
         <v>168.6534109867667</v>
@@ -32478,16 +32478,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L20" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M20" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N20" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O20" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P20" t="n">
         <v>285.7487894273646</v>
@@ -32499,7 +32499,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T20" t="n">
         <v>8.698570601564924</v>
@@ -32548,7 +32548,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
@@ -32581,7 +32581,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U21" t="n">
         <v>0.06994718178741882</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H22" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I22" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32648,7 +32648,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P22" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q22" t="n">
         <v>74.63830611262834</v>
@@ -32660,10 +32660,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T22" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J23" t="n">
         <v>168.6534109867667</v>
@@ -32715,16 +32715,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M23" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N23" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O23" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P23" t="n">
         <v>285.7487894273646</v>
@@ -32736,7 +32736,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T23" t="n">
         <v>8.698570601564924</v>
@@ -32785,7 +32785,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
@@ -32818,7 +32818,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U24" t="n">
         <v>0.06994718178741882</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H25" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I25" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32885,7 +32885,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q25" t="n">
         <v>74.63830611262834</v>
@@ -32897,10 +32897,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T25" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
@@ -32952,16 +32952,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L26" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M26" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N26" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O26" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P26" t="n">
         <v>285.7487894273646</v>
@@ -32973,7 +32973,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T26" t="n">
         <v>8.698570601564924</v>
@@ -33022,7 +33022,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
@@ -33055,7 +33055,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U27" t="n">
         <v>0.06994718178741882</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H28" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33122,7 +33122,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q28" t="n">
         <v>74.63830611262834</v>
@@ -33134,10 +33134,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T28" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
@@ -33189,16 +33189,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L29" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M29" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N29" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O29" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P29" t="n">
         <v>285.7487894273646</v>
@@ -33210,7 +33210,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T29" t="n">
         <v>8.698570601564924</v>
@@ -33259,7 +33259,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
@@ -33292,7 +33292,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U30" t="n">
         <v>0.06994718178741882</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H31" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33359,7 +33359,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q31" t="n">
         <v>74.63830611262834</v>
@@ -33371,10 +33371,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T31" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
@@ -33426,16 +33426,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L32" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M32" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O32" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P32" t="n">
         <v>285.7487894273646</v>
@@ -33447,7 +33447,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T32" t="n">
         <v>8.698570601564924</v>
@@ -33496,7 +33496,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J33" t="n">
         <v>100.4488161921859</v>
@@ -33529,7 +33529,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U33" t="n">
         <v>0.06994718178741882</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H34" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I34" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33596,7 +33596,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P34" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q34" t="n">
         <v>74.63830611262834</v>
@@ -33608,10 +33608,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T34" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J35" t="n">
         <v>168.6534109867667</v>
@@ -33663,16 +33663,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L35" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M35" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O35" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P35" t="n">
         <v>285.7487894273646</v>
@@ -33684,7 +33684,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T35" t="n">
         <v>8.698570601564924</v>
@@ -33733,7 +33733,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J36" t="n">
         <v>100.4488161921859</v>
@@ -33766,7 +33766,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U36" t="n">
         <v>0.06994718178741882</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H37" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I37" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
@@ -33833,7 +33833,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P37" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q37" t="n">
         <v>74.63830611262834</v>
@@ -33845,10 +33845,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T37" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J38" t="n">
         <v>168.6534109867667</v>
@@ -33900,16 +33900,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L38" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M38" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O38" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P38" t="n">
         <v>285.7487894273646</v>
@@ -33921,7 +33921,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T38" t="n">
         <v>8.698570601564924</v>
@@ -33970,7 +33970,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J39" t="n">
         <v>100.4488161921859</v>
@@ -34003,7 +34003,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U39" t="n">
         <v>0.06994718178741882</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H40" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I40" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
@@ -34070,7 +34070,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P40" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q40" t="n">
         <v>74.63830611262834</v>
@@ -34082,10 +34082,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T40" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J41" t="n">
         <v>168.6534109867667</v>
@@ -34137,16 +34137,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L41" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M41" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314075</v>
       </c>
       <c r="O41" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P41" t="n">
         <v>285.7487894273646</v>
@@ -34158,7 +34158,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T41" t="n">
         <v>8.698570601564924</v>
@@ -34207,7 +34207,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I42" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J42" t="n">
         <v>100.4488161921859</v>
@@ -34240,7 +34240,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U42" t="n">
         <v>0.06994718178741882</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H43" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K43" t="n">
         <v>103.5585226489404</v>
@@ -34307,7 +34307,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P43" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q43" t="n">
         <v>74.63830611262834</v>
@@ -34319,10 +34319,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T43" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J44" t="n">
         <v>168.6534109867667</v>
@@ -34374,16 +34374,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L44" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M44" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314075</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O44" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P44" t="n">
         <v>285.7487894273646</v>
@@ -34395,7 +34395,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T44" t="n">
         <v>8.698570601564924</v>
@@ -34444,7 +34444,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I45" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J45" t="n">
         <v>100.4488161921859</v>
@@ -34477,7 +34477,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U45" t="n">
         <v>0.06994718178741882</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H46" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K46" t="n">
         <v>103.5585226489404</v>
@@ -34544,7 +34544,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P46" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q46" t="n">
         <v>74.63830611262834</v>
@@ -34556,10 +34556,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T46" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J11" t="n">
         <v>139.2334515011802</v>
@@ -35415,22 +35415,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L11" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M11" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N11" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O11" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P11" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R11" t="n">
         <v>89.79009951709452</v>
@@ -35494,25 +35494,25 @@
         <v>149.2837922911598</v>
       </c>
       <c r="L12" t="n">
-        <v>208.3339289115149</v>
+        <v>473.4270541690281</v>
       </c>
       <c r="M12" t="n">
-        <v>511.3862575357974</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N12" t="n">
         <v>255.1768339739348</v>
       </c>
       <c r="O12" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P12" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R12" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K13" t="n">
-        <v>146.4517434780091</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L13" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M13" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="N13" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O13" t="n">
-        <v>103.4889118870001</v>
+        <v>312.8200152067071</v>
       </c>
       <c r="P13" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.12755337977123</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911598</v>
@@ -35746,7 +35746,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q15" t="n">
-        <v>354.3680238902485</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R15" t="n">
         <v>42.33856763136924</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K16" t="n">
         <v>332.3742814427153</v>
@@ -35813,13 +35813,13 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M16" t="n">
-        <v>427.2289954290974</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N16" t="n">
         <v>115.6517728702224</v>
       </c>
       <c r="O16" t="n">
-        <v>103.4889118870001</v>
+        <v>334.8615686442032</v>
       </c>
       <c r="P16" t="n">
         <v>401.3391416378323</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011802</v>
@@ -35889,22 +35889,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L17" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M17" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O17" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R17" t="n">
         <v>89.79009951709452</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911598</v>
@@ -35977,16 +35977,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O18" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P18" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q18" t="n">
-        <v>378.0622722179372</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K19" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L19" t="n">
-        <v>404.7430000354465</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M19" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N19" t="n">
-        <v>115.6517728702224</v>
+        <v>398.5471156643104</v>
       </c>
       <c r="O19" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J20" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L20" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N20" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O20" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P20" t="n">
         <v>248.1734276171333</v>
@@ -36144,7 +36144,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885255</v>
+        <v>321.2365787886768</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L21" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M21" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O21" t="n">
         <v>229.7897616392516</v>
@@ -36220,7 +36220,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q21" t="n">
-        <v>378.0622722179372</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R21" t="n">
         <v>42.33856763136924</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K22" t="n">
-        <v>82.59386819622839</v>
+        <v>82.5938681962284</v>
       </c>
       <c r="L22" t="n">
-        <v>490.7912967507202</v>
+        <v>318.6049007742619</v>
       </c>
       <c r="M22" t="n">
-        <v>117.1475339767207</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N22" t="n">
-        <v>446.8986708768589</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O22" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P22" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297618</v>
       </c>
       <c r="Q22" t="n">
         <v>50.0187433478434</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J23" t="n">
         <v>534.9195310038328</v>
       </c>
       <c r="K23" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L23" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M23" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N23" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O23" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P23" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q23" t="n">
-        <v>486.0168159676748</v>
+        <v>486.0168159676743</v>
       </c>
       <c r="R23" t="n">
         <v>243.5665220198734</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208251</v>
       </c>
       <c r="J24" t="n">
-        <v>344.9308271163655</v>
+        <v>79.83770185885257</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2837922911598</v>
+        <v>414.3769175486727</v>
       </c>
       <c r="L24" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M24" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O24" t="n">
         <v>229.7897616392516</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K25" t="n">
-        <v>332.3742814427153</v>
+        <v>298.1907316728659</v>
       </c>
       <c r="L25" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M25" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N25" t="n">
         <v>517.705230286263</v>
@@ -36533,10 +36533,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P25" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.02891148676062</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L26" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N26" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O26" t="n">
-        <v>720.8347450849373</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1734276171333</v>
+        <v>709.5059001325628</v>
       </c>
       <c r="Q26" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R26" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J27" t="n">
-        <v>344.9308271163658</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K27" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L27" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M27" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O27" t="n">
         <v>229.7897616392516</v>
@@ -36697,7 +36697,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36761,7 +36761,7 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M28" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398015</v>
       </c>
       <c r="N28" t="n">
         <v>517.705230286263</v>
@@ -36770,10 +36770,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.02891148676062</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0031433876725</v>
+        <v>524.559193400323</v>
       </c>
       <c r="L29" t="n">
-        <v>698.6888516741371</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N29" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O29" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P29" t="n">
         <v>248.1734276171333</v>
@@ -36855,7 +36855,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885255</v>
+        <v>79.83770185885257</v>
       </c>
       <c r="K30" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L30" t="n">
-        <v>449.7328058413393</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M30" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O30" t="n">
-        <v>229.7897616392516</v>
+        <v>364.6679312105849</v>
       </c>
       <c r="P30" t="n">
         <v>181.2531855058807</v>
@@ -36934,7 +36934,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K31" t="n">
-        <v>332.3742814427153</v>
+        <v>219.4819269776933</v>
       </c>
       <c r="L31" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M31" t="n">
-        <v>421.9677860398015</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N31" t="n">
         <v>517.705230286263</v>
@@ -37007,7 +37007,7 @@
         <v>485.006411183165</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q31" t="n">
         <v>202.9212659517818</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J32" t="n">
         <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
-        <v>217.0031433876725</v>
+        <v>678.3356159031021</v>
       </c>
       <c r="L32" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M32" t="n">
-        <v>619.0437785791325</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N32" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O32" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P32" t="n">
         <v>248.1734276171333</v>
@@ -37092,7 +37092,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R32" t="n">
-        <v>243.5665220198734</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J33" t="n">
-        <v>321.2365787886768</v>
+        <v>79.83770185885257</v>
       </c>
       <c r="K33" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L33" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M33" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O33" t="n">
         <v>229.7897616392516</v>
@@ -37168,10 +37168,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317573</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M34" t="n">
-        <v>421.9677860398015</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N34" t="n">
         <v>517.705230286263</v>
@@ -37244,10 +37244,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P34" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148675971</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J35" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L35" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N35" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O35" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P35" t="n">
         <v>248.1734276171333</v>
@@ -37329,7 +37329,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885255</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K36" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L36" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M36" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N36" t="n">
-        <v>496.5757109037592</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O36" t="n">
         <v>229.7897616392516</v>
@@ -37408,7 +37408,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,22 +37469,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L37" t="n">
-        <v>110.6004951434828</v>
+        <v>340.6464542117591</v>
       </c>
       <c r="M37" t="n">
-        <v>534.4427286986308</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N37" t="n">
         <v>115.6517728702224</v>
       </c>
       <c r="O37" t="n">
-        <v>450.6596981334689</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,25 +37539,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J38" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L38" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N38" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P38" t="n">
         <v>248.1734276171333</v>
@@ -37566,7 +37566,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709496</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885255</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K39" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L39" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M39" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O39" t="n">
         <v>229.7897616392516</v>
       </c>
       <c r="P39" t="n">
-        <v>316.1313550772146</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q39" t="n">
         <v>112.969146960424</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K40" t="n">
-        <v>332.3742814427153</v>
+        <v>82.5938681962284</v>
       </c>
       <c r="L40" t="n">
         <v>490.7912967507202</v>
@@ -37712,13 +37712,13 @@
         <v>534.442728698631</v>
       </c>
       <c r="N40" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O40" t="n">
-        <v>465.0930593762608</v>
+        <v>312.8200152067071</v>
       </c>
       <c r="P40" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297618</v>
       </c>
       <c r="Q40" t="n">
         <v>50.0187433478434</v>
@@ -37776,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J41" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L41" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969615</v>
       </c>
       <c r="O41" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P41" t="n">
         <v>248.1734276171333</v>
@@ -37803,7 +37803,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885255</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K42" t="n">
-        <v>307.8562101901822</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L42" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M42" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N42" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O42" t="n">
         <v>229.7897616392516</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K43" t="n">
-        <v>332.3742814427153</v>
+        <v>82.5938681962284</v>
       </c>
       <c r="L43" t="n">
         <v>490.7912967507202</v>
@@ -37949,16 +37949,16 @@
         <v>534.442728698631</v>
       </c>
       <c r="N43" t="n">
-        <v>245.6445930603721</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O43" t="n">
-        <v>103.4889118870001</v>
+        <v>312.8200152067071</v>
       </c>
       <c r="P43" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297618</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J44" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L44" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M44" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969615</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O44" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P44" t="n">
         <v>248.1734276171333</v>
@@ -38040,7 +38040,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J45" t="n">
-        <v>79.83770185885255</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K45" t="n">
-        <v>390.6826692209842</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L45" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M45" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O45" t="n">
         <v>229.7897616392516</v>
@@ -38119,7 +38119,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K46" t="n">
-        <v>332.3742814427153</v>
+        <v>260.9382435989269</v>
       </c>
       <c r="L46" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M46" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N46" t="n">
         <v>115.6517728702224</v>
       </c>
       <c r="O46" t="n">
-        <v>233.4817320771497</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P46" t="n">
-        <v>85.42378348297616</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q46" t="n">
         <v>202.9212659517818</v>
